--- a/va_facility_data_2025-02-20/Greenville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Greenville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Greenville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Greenville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R998535b32ba94366bad9dcf0d7071399"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9fb73e0adc41409085fa9e082e953306"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc340904b5ce14ab78a74397aba96e5fa"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R512a765adb9a46279a0a09016fec2cdb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1390c13f8f684410896c0078c6878480"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R808481579be441089242a35b0fc642d0"/>
   </x:sheets>
 </x:workbook>
 </file>
